--- a/Ml/newdata.xlsx
+++ b/Ml/newdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Ibeto\Ibeto\Ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0892D360-E42C-484E-B4D9-2E27824EF1EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4302A1A4-9FDD-418A-92CE-744C5E52F94F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8556" yWindow="4044" windowWidth="17280" windowHeight="9072" xr2:uid="{3365D61B-9AB8-476F-B54A-D1A8EE0F9899}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3365D61B-9AB8-476F-B54A-D1A8EE0F9899}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="5">
-  <si>
-    <t>Paddy</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="8">
   <si>
     <t>Crops</t>
   </si>
@@ -40,6 +34,21 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>paddy</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>jute</t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB63CB1-B148-41BF-9CDC-34936A764204}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,18 +423,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>40634</v>
@@ -436,7 +445,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>40664</v>
@@ -447,7 +456,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>40695</v>
@@ -458,7 +467,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>40725</v>
@@ -469,7 +478,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>40756</v>
@@ -480,7 +489,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>40787</v>
@@ -491,7 +500,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>40817</v>
@@ -502,7 +511,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>40848</v>
@@ -513,7 +522,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>40878</v>
@@ -524,7 +533,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
         <v>40909</v>
@@ -535,7 +544,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
         <v>40940</v>
@@ -546,7 +555,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
         <v>40969</v>
@@ -557,7 +566,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
         <v>41000</v>
@@ -568,7 +577,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>41030</v>
@@ -579,7 +588,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
         <v>41061</v>
@@ -590,7 +599,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>41091</v>
@@ -601,7 +610,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
         <v>41122</v>
@@ -612,7 +621,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2">
         <v>41153</v>
@@ -623,7 +632,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2">
         <v>41183</v>
@@ -634,7 +643,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
         <v>41214</v>
@@ -645,7 +654,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
         <v>41244</v>
@@ -656,7 +665,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2">
         <v>41275</v>
@@ -667,7 +676,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2">
         <v>41306</v>
@@ -678,7 +687,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2">
         <v>41334</v>
@@ -689,7 +698,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2">
         <v>41365</v>
@@ -700,7 +709,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2">
         <v>41395</v>
@@ -711,7 +720,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
         <v>41426</v>
@@ -722,7 +731,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
         <v>41456</v>
@@ -733,7 +742,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>41487</v>
@@ -744,7 +753,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2">
         <v>41518</v>
@@ -755,7 +764,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
         <v>41548</v>
@@ -766,7 +775,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
         <v>41579</v>
@@ -777,7 +786,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2">
         <v>41609</v>
@@ -788,7 +797,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2">
         <v>41640</v>
@@ -799,7 +808,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
         <v>41671</v>
@@ -810,7 +819,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
         <v>41699</v>
@@ -821,7 +830,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
         <v>41730</v>
@@ -832,7 +841,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2">
         <v>41760</v>
@@ -843,7 +852,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2">
         <v>41791</v>
@@ -854,7 +863,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
         <v>41821</v>
@@ -865,7 +874,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
         <v>41852</v>
@@ -876,7 +885,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>41883</v>
@@ -887,7 +896,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2">
         <v>41913</v>
@@ -898,7 +907,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2">
         <v>41944</v>
@@ -909,7 +918,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2">
         <v>41974</v>
@@ -920,7 +929,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2">
         <v>42005</v>
@@ -931,7 +940,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2">
         <v>42036</v>
@@ -942,7 +951,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2">
         <v>42064</v>
@@ -953,7 +962,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2">
         <v>42095</v>
@@ -964,7 +973,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2">
         <v>42125</v>
@@ -975,7 +984,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2">
         <v>42156</v>
@@ -986,7 +995,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2">
         <v>42186</v>
@@ -997,7 +1006,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2">
         <v>42217</v>
@@ -1008,7 +1017,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2">
         <v>42248</v>
@@ -1019,7 +1028,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2">
         <v>42278</v>
@@ -1030,7 +1039,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2">
         <v>42309</v>
@@ -1041,7 +1050,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2">
         <v>42339</v>
@@ -1052,7 +1061,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B59" s="2">
         <v>42370</v>
@@ -1063,7 +1072,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2">
         <v>42401</v>
@@ -1074,7 +1083,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2">
         <v>42430</v>
@@ -1085,7 +1094,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B62" s="2">
         <v>42461</v>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2">
         <v>42491</v>
@@ -1107,7 +1116,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B64" s="2">
         <v>42522</v>
@@ -1118,7 +1127,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B65" s="2">
         <v>42552</v>
@@ -1129,7 +1138,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2">
         <v>42583</v>
@@ -1140,7 +1149,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2">
         <v>42614</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B68" s="2">
         <v>42644</v>
@@ -1162,7 +1171,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B69" s="2">
         <v>42675</v>
@@ -1173,7 +1182,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B70" s="2">
         <v>42705</v>
@@ -1184,7 +1193,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2">
         <v>42736</v>
@@ -1195,7 +1204,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2">
         <v>42767</v>
@@ -1206,7 +1215,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B73" s="2">
         <v>42795</v>
@@ -1217,7 +1226,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2">
         <v>42826</v>
@@ -1228,7 +1237,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2">
         <v>42856</v>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B76" s="2">
         <v>42887</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B77" s="2">
         <v>42917</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B78" s="2">
         <v>42948</v>
@@ -1272,7 +1281,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B79" s="2">
         <v>42979</v>
@@ -1283,7 +1292,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B80" s="2">
         <v>43009</v>
@@ -1294,7 +1303,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B81" s="2">
         <v>43040</v>
@@ -1305,7 +1314,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B82" s="2">
         <v>43070</v>
@@ -1316,7 +1325,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B83" s="2">
         <v>43101</v>
@@ -1327,7 +1336,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B84" s="2">
         <v>43132</v>
@@ -1338,7 +1347,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B85" s="2">
         <v>43160</v>
@@ -1349,7 +1358,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B86" s="2">
         <v>43191</v>
@@ -1360,7 +1369,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B87" s="2">
         <v>43221</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B88" s="2">
         <v>43252</v>
@@ -1382,7 +1391,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B89" s="2">
         <v>43282</v>
@@ -1393,7 +1402,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B90" s="2">
         <v>43313</v>
@@ -1404,7 +1413,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B91" s="2">
         <v>43344</v>
@@ -1415,7 +1424,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B92" s="2">
         <v>43374</v>
@@ -1426,7 +1435,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B93" s="2">
         <v>43405</v>
@@ -1437,7 +1446,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B94" s="2">
         <v>43435</v>
@@ -1448,7 +1457,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B95" s="2">
         <v>43466</v>
@@ -1459,7 +1468,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B96" s="2">
         <v>43497</v>
@@ -1470,7 +1479,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B97" s="2">
         <v>43525</v>
@@ -1481,7 +1490,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B98" s="2">
         <v>43556</v>
@@ -1492,7 +1501,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B99" s="2">
         <v>43586</v>
@@ -1503,7 +1512,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B100" s="2">
         <v>43617</v>
@@ -1514,7 +1523,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B101" s="2">
         <v>43647</v>
@@ -1525,7 +1534,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B102" s="2">
         <v>43678</v>
@@ -1536,7 +1545,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B103" s="2">
         <v>43709</v>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B104" s="2">
         <v>43739</v>
@@ -1558,7 +1567,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B105" s="2">
         <v>43770</v>
@@ -1569,7 +1578,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B106" s="2">
         <v>43800</v>
@@ -1580,7 +1589,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B107" s="2">
         <v>43831</v>
@@ -1591,7 +1600,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B108" s="2">
         <v>43862</v>
@@ -1602,7 +1611,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B109" s="2">
         <v>43891</v>
@@ -1613,7 +1622,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2">
         <v>43922</v>
@@ -1624,7 +1633,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B111" s="2">
         <v>43952</v>
@@ -1635,7 +1644,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2">
         <v>43983</v>
@@ -1646,7 +1655,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2">
         <v>40634</v>
@@ -1657,7 +1666,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B114" s="2">
         <v>40664</v>
@@ -1668,7 +1677,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B115" s="2">
         <v>40695</v>
@@ -1679,7 +1688,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2">
         <v>40725</v>
@@ -1690,7 +1699,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B117" s="2">
         <v>40756</v>
@@ -1701,7 +1710,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2">
         <v>40787</v>
@@ -1712,7 +1721,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2">
         <v>40817</v>
@@ -1723,7 +1732,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2">
         <v>40848</v>
@@ -1734,7 +1743,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B121" s="2">
         <v>40878</v>
@@ -1745,7 +1754,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B122" s="2">
         <v>40909</v>
@@ -1756,7 +1765,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B123" s="2">
         <v>40940</v>
@@ -1767,7 +1776,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B124" s="2">
         <v>40969</v>
@@ -1778,7 +1787,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B125" s="2">
         <v>41000</v>
@@ -1789,7 +1798,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B126" s="2">
         <v>41030</v>
@@ -1800,7 +1809,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B127" s="2">
         <v>41061</v>
@@ -1811,7 +1820,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B128" s="2">
         <v>41091</v>
@@ -1822,7 +1831,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2">
         <v>41122</v>
@@ -1833,7 +1842,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2">
         <v>41153</v>
@@ -1844,7 +1853,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2">
         <v>41183</v>
@@ -1855,7 +1864,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B132" s="2">
         <v>41214</v>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B133" s="2">
         <v>41244</v>
@@ -1877,7 +1886,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B134" s="2">
         <v>41275</v>
@@ -1888,7 +1897,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2">
         <v>41306</v>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B136" s="2">
         <v>41334</v>
@@ -1910,7 +1919,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B137" s="2">
         <v>41365</v>
@@ -1921,7 +1930,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B138" s="2">
         <v>41395</v>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B139" s="2">
         <v>41426</v>
@@ -1943,7 +1952,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B140" s="2">
         <v>41456</v>
@@ -1954,7 +1963,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B141" s="2">
         <v>41487</v>
@@ -1965,7 +1974,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B142" s="2">
         <v>41518</v>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B143" s="2">
         <v>41548</v>
@@ -1987,7 +1996,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B144" s="2">
         <v>41579</v>
@@ -1998,7 +2007,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B145" s="2">
         <v>41609</v>
@@ -2009,7 +2018,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2">
         <v>41640</v>
@@ -2020,7 +2029,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B147" s="2">
         <v>41671</v>
@@ -2031,7 +2040,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B148" s="2">
         <v>41699</v>
@@ -2042,7 +2051,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B149" s="2">
         <v>41730</v>
@@ -2053,7 +2062,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B150" s="2">
         <v>41760</v>
@@ -2064,7 +2073,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B151" s="2">
         <v>41791</v>
@@ -2075,7 +2084,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B152" s="2">
         <v>41821</v>
@@ -2086,7 +2095,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B153" s="2">
         <v>41852</v>
@@ -2097,7 +2106,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2">
         <v>41883</v>
@@ -2108,7 +2117,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2">
         <v>41913</v>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2">
         <v>41944</v>
@@ -2130,7 +2139,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B157" s="2">
         <v>41974</v>
@@ -2141,7 +2150,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B158" s="2">
         <v>42005</v>
@@ -2152,7 +2161,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B159" s="2">
         <v>42036</v>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B160" s="2">
         <v>42064</v>
@@ -2174,7 +2183,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B161" s="2">
         <v>42095</v>
@@ -2185,7 +2194,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B162" s="2">
         <v>42125</v>
@@ -2196,7 +2205,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B163" s="2">
         <v>42156</v>
@@ -2207,7 +2216,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B164" s="2">
         <v>42186</v>
@@ -2218,7 +2227,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B165" s="2">
         <v>42217</v>
@@ -2229,7 +2238,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B166" s="2">
         <v>42248</v>
@@ -2240,7 +2249,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B167" s="2">
         <v>42278</v>
@@ -2251,7 +2260,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B168" s="2">
         <v>42309</v>
@@ -2262,7 +2271,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B169" s="2">
         <v>42339</v>
@@ -2273,7 +2282,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B170" s="2">
         <v>42370</v>
@@ -2284,7 +2293,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B171" s="2">
         <v>42401</v>
@@ -2295,7 +2304,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B172" s="2">
         <v>42430</v>
@@ -2306,7 +2315,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B173" s="2">
         <v>42461</v>
@@ -2317,7 +2326,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B174" s="2">
         <v>42491</v>
@@ -2328,7 +2337,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B175" s="2">
         <v>42522</v>
@@ -2339,7 +2348,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B176" s="2">
         <v>42552</v>
@@ -2350,7 +2359,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B177" s="2">
         <v>42583</v>
@@ -2361,7 +2370,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B178" s="2">
         <v>42614</v>
@@ -2372,7 +2381,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B179" s="2">
         <v>42644</v>
@@ -2383,7 +2392,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B180" s="2">
         <v>42675</v>
@@ -2394,7 +2403,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B181" s="2">
         <v>42705</v>
@@ -2405,7 +2414,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2">
         <v>42736</v>
@@ -2416,7 +2425,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B183" s="2">
         <v>42767</v>
@@ -2427,7 +2436,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B184" s="2">
         <v>42795</v>
@@ -2438,7 +2447,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B185" s="2">
         <v>42826</v>
@@ -2449,7 +2458,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B186" s="2">
         <v>42856</v>
@@ -2460,7 +2469,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B187" s="2">
         <v>42887</v>
@@ -2471,7 +2480,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B188" s="2">
         <v>42917</v>
@@ -2482,7 +2491,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B189" s="2">
         <v>42948</v>
@@ -2493,7 +2502,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B190" s="2">
         <v>42979</v>
@@ -2504,7 +2513,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B191" s="2">
         <v>43009</v>
@@ -2515,7 +2524,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B192" s="2">
         <v>43040</v>
@@ -2526,7 +2535,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B193" s="2">
         <v>43070</v>
@@ -2537,7 +2546,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B194" s="2">
         <v>43101</v>
@@ -2548,7 +2557,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B195" s="2">
         <v>43132</v>
@@ -2559,7 +2568,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B196" s="2">
         <v>43160</v>
@@ -2570,7 +2579,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B197" s="2">
         <v>43191</v>
@@ -2581,7 +2590,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B198" s="2">
         <v>43221</v>
@@ -2592,7 +2601,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B199" s="2">
         <v>43252</v>
@@ -2603,7 +2612,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B200" s="2">
         <v>43282</v>
@@ -2614,7 +2623,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B201" s="2">
         <v>43313</v>
@@ -2625,7 +2634,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B202" s="2">
         <v>43344</v>
@@ -2636,7 +2645,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B203" s="2">
         <v>43374</v>
@@ -2647,7 +2656,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B204" s="2">
         <v>43405</v>
@@ -2658,7 +2667,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B205" s="2">
         <v>43435</v>
@@ -2669,7 +2678,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B206" s="2">
         <v>43466</v>
@@ -2680,7 +2689,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B207" s="2">
         <v>43497</v>
@@ -2691,7 +2700,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B208" s="2">
         <v>43525</v>
@@ -2702,7 +2711,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B209" s="2">
         <v>43556</v>
@@ -2713,7 +2722,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B210" s="2">
         <v>43586</v>
@@ -2724,7 +2733,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B211" s="2">
         <v>43617</v>
@@ -2735,7 +2744,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B212" s="2">
         <v>43647</v>
@@ -2746,7 +2755,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B213" s="2">
         <v>43678</v>
@@ -2757,7 +2766,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B214" s="2">
         <v>43709</v>
@@ -2768,7 +2777,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B215" s="2">
         <v>43739</v>
@@ -2779,7 +2788,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B216" s="2">
         <v>43770</v>
@@ -2790,7 +2799,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B217" s="2">
         <v>43800</v>
@@ -2801,7 +2810,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B218" s="2">
         <v>43831</v>
@@ -2812,7 +2821,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B219" s="2">
         <v>43862</v>
@@ -2823,7 +2832,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B220" s="2">
         <v>43891</v>
@@ -2834,7 +2843,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B221" s="2">
         <v>43922</v>
@@ -2845,7 +2854,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B222" s="2">
         <v>43952</v>
@@ -2856,13 +2865,3676 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B223" s="2">
         <v>43983</v>
       </c>
       <c r="C223">
         <v>158.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C224">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="2">
+        <v>40664</v>
+      </c>
+      <c r="C225">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C226">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="2">
+        <v>40725</v>
+      </c>
+      <c r="C227">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="2">
+        <v>40756</v>
+      </c>
+      <c r="C228">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C229">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="2">
+        <v>40817</v>
+      </c>
+      <c r="C230">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="2">
+        <v>40848</v>
+      </c>
+      <c r="C231">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C232">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="2">
+        <v>40909</v>
+      </c>
+      <c r="C233">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C234">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C235">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C236">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="2">
+        <v>41030</v>
+      </c>
+      <c r="C237">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C238">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2">
+        <v>41091</v>
+      </c>
+      <c r="C239">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="2">
+        <v>41122</v>
+      </c>
+      <c r="C240">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C241">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="2">
+        <v>41183</v>
+      </c>
+      <c r="C242">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C243">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C244">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C245">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C246">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C247">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C248">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="2">
+        <v>41395</v>
+      </c>
+      <c r="C249">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C250">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C251">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="2">
+        <v>41487</v>
+      </c>
+      <c r="C252">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C253">
+        <v>128.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="2">
+        <v>41548</v>
+      </c>
+      <c r="C254">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C255">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C256">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C257">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="2">
+        <v>41671</v>
+      </c>
+      <c r="C258">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C259">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C260">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C261">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C262">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C263">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C264">
+        <v>121.7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C265">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C266">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C267">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C268">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C269">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="2">
+        <v>42036</v>
+      </c>
+      <c r="C270">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C271">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C272">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C273">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C274">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C275">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C276">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C277">
+        <v>121.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C278">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C279">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C280">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C281">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C282">
+        <v>135.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C283">
+        <v>135.80000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C284">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="2">
+        <v>42491</v>
+      </c>
+      <c r="C285">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C286">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C287">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C288">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C289">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="2">
+        <v>42644</v>
+      </c>
+      <c r="C290">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="2">
+        <v>42675</v>
+      </c>
+      <c r="C291">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C292">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="2">
+        <v>42736</v>
+      </c>
+      <c r="C293">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="2">
+        <v>42767</v>
+      </c>
+      <c r="C294">
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C295">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C296">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C297">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C298">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C299">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="2">
+        <v>42948</v>
+      </c>
+      <c r="C300">
+        <v>127.7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C301">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="2">
+        <v>43009</v>
+      </c>
+      <c r="C302">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C303">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C304">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C305">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C306">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C307">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C308">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C309">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C310">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C311">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C312">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C313">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C314">
+        <v>129.30000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C315">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C316">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C317">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C318">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C319">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C320">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C321">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C322">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C323">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C324">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C325">
+        <v>185.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C326">
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C327">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C328">
+        <v>175.6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C329">
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C330">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C331">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C332">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C333">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C334">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C335">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" s="2">
+        <v>40664</v>
+      </c>
+      <c r="C336">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C337">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="2">
+        <v>40725</v>
+      </c>
+      <c r="C338">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="2">
+        <v>40756</v>
+      </c>
+      <c r="C339">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C340">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="2">
+        <v>40817</v>
+      </c>
+      <c r="C341">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" s="2">
+        <v>40848</v>
+      </c>
+      <c r="C342">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C343">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" s="2">
+        <v>40909</v>
+      </c>
+      <c r="C344">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C345">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C346">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C347">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="2">
+        <v>41030</v>
+      </c>
+      <c r="C348">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>6</v>
+      </c>
+      <c r="B349" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C349">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" s="2">
+        <v>41091</v>
+      </c>
+      <c r="C350">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" s="2">
+        <v>41122</v>
+      </c>
+      <c r="C351">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C352">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" s="2">
+        <v>41183</v>
+      </c>
+      <c r="C353">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C354">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C355">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C356">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C357">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C358">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C359">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" s="2">
+        <v>41395</v>
+      </c>
+      <c r="C360">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C361">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C362">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="2">
+        <v>41487</v>
+      </c>
+      <c r="C363">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C364">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="2">
+        <v>41548</v>
+      </c>
+      <c r="C365">
+        <v>111.9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C366">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C367">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C368">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="2">
+        <v>41671</v>
+      </c>
+      <c r="C369">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C370">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C371">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C372">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C373">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C374">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C375">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C376">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C377">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C378">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C379">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C380">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" s="2">
+        <v>42036</v>
+      </c>
+      <c r="C381">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C382">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C383">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C384">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C385">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C386">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C387">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C388">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C389">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C390">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C391">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C392">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C393">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C394">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C395">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="2">
+        <v>42491</v>
+      </c>
+      <c r="C396">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C397">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C398">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C399">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C400">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="2">
+        <v>42644</v>
+      </c>
+      <c r="C401">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="2">
+        <v>42675</v>
+      </c>
+      <c r="C402">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C403">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" s="2">
+        <v>42736</v>
+      </c>
+      <c r="C404">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>6</v>
+      </c>
+      <c r="B405" s="2">
+        <v>42767</v>
+      </c>
+      <c r="C405">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C406">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C407">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B408" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C408">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C409">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C410">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="2">
+        <v>42948</v>
+      </c>
+      <c r="C411">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C412">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" s="2">
+        <v>43009</v>
+      </c>
+      <c r="C413">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C414">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C415">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C416">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C417">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C418">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C419">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C420">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C421">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>6</v>
+      </c>
+      <c r="B422" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C422">
+        <v>121.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C423">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>6</v>
+      </c>
+      <c r="B424" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C424">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C425">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C426">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C427">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C428">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C429">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C430">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C431">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C432">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C433">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C434">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C435">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C436">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C437">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C438">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C439">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C440">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C441">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C442">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C443">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>6</v>
+      </c>
+      <c r="B444" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C444">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>6</v>
+      </c>
+      <c r="B445" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C445">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C446">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" s="2">
+        <v>40664</v>
+      </c>
+      <c r="C447">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C448">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" s="2">
+        <v>40725</v>
+      </c>
+      <c r="C449">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="2">
+        <v>40756</v>
+      </c>
+      <c r="C450">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C451">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" s="2">
+        <v>40817</v>
+      </c>
+      <c r="C452">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" s="2">
+        <v>40848</v>
+      </c>
+      <c r="C453">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C454">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" s="2">
+        <v>40909</v>
+      </c>
+      <c r="C455">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C456">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C457">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C458">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459" s="2">
+        <v>41030</v>
+      </c>
+      <c r="C459">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C460">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461" s="2">
+        <v>41091</v>
+      </c>
+      <c r="C461">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B462" s="2">
+        <v>41122</v>
+      </c>
+      <c r="C462">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B463" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C463">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" s="2">
+        <v>41183</v>
+      </c>
+      <c r="C464">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C465">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C466">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C467">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C468">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C469">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C470">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" s="2">
+        <v>41395</v>
+      </c>
+      <c r="C471">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C472">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C473">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" s="2">
+        <v>41487</v>
+      </c>
+      <c r="C474">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C475">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476" s="2">
+        <v>41548</v>
+      </c>
+      <c r="C476">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C477">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C478">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B479" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C479">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480" s="2">
+        <v>41671</v>
+      </c>
+      <c r="C480">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B481" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C481">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B482" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C482">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C483">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C484">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C485">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C486">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C487">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C488">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C489">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C490">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C491">
+        <v>136.80000000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" s="2">
+        <v>42036</v>
+      </c>
+      <c r="C492">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C493">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C494">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C495">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C496">
+        <v>159.69999999999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C497">
+        <v>161.9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C498">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C499">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C500">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C501">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C502">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C503">
+        <v>217.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>7</v>
+      </c>
+      <c r="B504" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C504">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C505">
+        <v>225.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C506">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" s="2">
+        <v>42491</v>
+      </c>
+      <c r="C507">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C508">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>7</v>
+      </c>
+      <c r="B509" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C509">
+        <v>242.9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C510">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C511">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" s="2">
+        <v>42644</v>
+      </c>
+      <c r="C512">
+        <v>194.2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" s="2">
+        <v>42675</v>
+      </c>
+      <c r="C513">
+        <v>196.7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C514">
+        <v>190.2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" s="2">
+        <v>42736</v>
+      </c>
+      <c r="C515">
+        <v>190.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>7</v>
+      </c>
+      <c r="B516" s="2">
+        <v>42767</v>
+      </c>
+      <c r="C516">
+        <v>190.6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C517">
+        <v>188.3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>7</v>
+      </c>
+      <c r="B518" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C518">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>7</v>
+      </c>
+      <c r="B519" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C519">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>7</v>
+      </c>
+      <c r="B520" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C520">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>7</v>
+      </c>
+      <c r="B521" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C521">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>7</v>
+      </c>
+      <c r="B522" s="2">
+        <v>42948</v>
+      </c>
+      <c r="C522">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B523" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C523">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>7</v>
+      </c>
+      <c r="B524" s="2">
+        <v>43009</v>
+      </c>
+      <c r="C524">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>7</v>
+      </c>
+      <c r="B525" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C525">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>7</v>
+      </c>
+      <c r="B526" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C526">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>7</v>
+      </c>
+      <c r="B527" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C527">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>7</v>
+      </c>
+      <c r="B528" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C528">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C529">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>7</v>
+      </c>
+      <c r="B530" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C530">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>7</v>
+      </c>
+      <c r="B531" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C531">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B532" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C532">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B533" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C533">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B534" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C534">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B535" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C535">
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B536" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C536">
+        <v>182.8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>7</v>
+      </c>
+      <c r="B537" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C537">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>7</v>
+      </c>
+      <c r="B538" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C538">
+        <v>189.3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>7</v>
+      </c>
+      <c r="B539" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C539">
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>7</v>
+      </c>
+      <c r="B540" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C540">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C541">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B542" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C542">
+        <v>197.3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>7</v>
+      </c>
+      <c r="B543" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C543">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>7</v>
+      </c>
+      <c r="B544" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C544">
+        <v>197.2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B545" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C545">
+        <v>191.4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B546" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C546">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>7</v>
+      </c>
+      <c r="B547" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C547">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B548" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C548">
+        <v>199.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>7</v>
+      </c>
+      <c r="B549" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C549">
+        <v>204.1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B550" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C550">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B551" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C551">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B552" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C552">
+        <v>212.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B553" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C553">
+        <v>210.2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B554" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C554">
+        <v>209.1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>7</v>
+      </c>
+      <c r="B555" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C555">
+        <v>210.9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>7</v>
+      </c>
+      <c r="B556" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C556">
+        <v>206.6</v>
       </c>
     </row>
   </sheetData>
